--- a/Laba3/ответ_2задача_2краевые.xlsx
+++ b/Laba3/ответ_2задача_2краевые.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,8 +9,31 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y(h/2)</t>
+  </si>
+  <si>
+    <t>y(h/4)</t>
+  </si>
+  <si>
+    <t>|y(h/2)-y(h)|</t>
+  </si>
+  <si>
+    <t>|y(h/2)-y(h/4)|</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48,7 +71,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -56,9 +79,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,7 +119,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -130,7 +153,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,10 +187,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -342,12 +363,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.1401855999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.5706204891977101E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.8537618631461196E-3</v>
+      </c>
+      <c r="E2">
+        <f>ABS(B2-C2)</f>
+        <v>1.5695651108022898E-2</v>
+      </c>
+      <c r="F2">
+        <f>ABS(C2-D2)</f>
+        <v>7.8524430288309816E-3</v>
+      </c>
+      <c r="G2">
+        <f>E2/F2</f>
+        <v>1.9988239393007807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>0.33863966899999998</v>
+      </c>
+      <c r="C3">
+        <v>0.32389397057430402</v>
+      </c>
+      <c r="D3">
+        <v>0.31647124475833999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:F11" si="0">ABS(B3-C3)</f>
+        <v>1.4745698425695952E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>7.4227258159640375E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="1">E3/F3</f>
+        <v>1.9865611085866079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>0.61272060699999997</v>
+      </c>
+      <c r="C4">
+        <v>0.60037469800361198</v>
+      </c>
+      <c r="D4">
+        <v>0.59410981688855502</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.2345908996387989E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>6.2648811150569639E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.9706533563288109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>0.82680991299999995</v>
+      </c>
+      <c r="C5">
+        <v>0.81808306849703405</v>
+      </c>
+      <c r="D5">
+        <v>0.81359191479662196</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8.7268445029659025E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.4911537004120872E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.9431186472565318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <v>0.95994577999999997</v>
+      </c>
+      <c r="C6">
+        <v>0.95570694997596495</v>
+      </c>
+      <c r="D6">
+        <v>0.95343277071321098</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.238830024035023E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.2741792627539725E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.8638944138915017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>0.99909119000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.99977356373412896</v>
+      </c>
+      <c r="D7">
+        <v>0.99994348800849098</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6.823737341289382E-4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.6992427436202107E-4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4.0157519382731124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <v>0.94041001599999996</v>
+      </c>
+      <c r="C8">
+        <v>0.94596828193476701</v>
+      </c>
+      <c r="D8">
+        <v>0.94857100277463002</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.5582659347670482E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.6027208398630153E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.1355597763836967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>0.78964248800000003</v>
+      </c>
+      <c r="C9">
+        <v>0.79955696262950504</v>
+      </c>
+      <c r="D9">
+        <v>0.80434376673355201</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9.9144746295050101E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.7868041040469711E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.0712096033181897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
+        <v>0.56154325999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.57487048109657801</v>
+      </c>
+      <c r="D10">
+        <v>0.58137952489439604</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.3327221096578024E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6.509043797818026E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.0474929207029762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>0.27843708900000003</v>
+      </c>
+      <c r="C11">
+        <v>0.29390191506452401</v>
+      </c>
+      <c r="D11">
+        <v>0.30150337008858502</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.5464826064523984E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>7.6014550240610101E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2.0344560371103846</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>